--- a/xlsx/今日美国_intext.xlsx
+++ b/xlsx/今日美国_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>今日美国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%8A%A5</t>
@@ -29,7 +29,7 @@
     <t>日报</t>
   </si>
   <si>
-    <t>政策_政策_美國_今日美国</t>
+    <t>政策_政策_维基百科_今日美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8A%A5</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -53,9 +53,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>費爾法克斯縣</t>
+    <t>费尔法克斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -101,25 +98,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%B0%E7%A4%BE</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -269,13 +266,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -305,19 +302,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -419,25 +416,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
   </si>
   <si>
-    <t>報紙</t>
+    <t>报纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -450,15 +447,6 @@
   </si>
   <si>
     <t>出版社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -807,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -1000,10 +988,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1029,10 +1017,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1058,10 +1046,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1087,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1116,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1145,10 +1133,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1174,10 +1162,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1203,10 +1191,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1232,10 +1220,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1261,10 +1249,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1290,10 +1278,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1319,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1348,10 +1336,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1377,10 +1365,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1406,10 +1394,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1435,10 +1423,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1464,10 +1452,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1493,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1522,10 +1510,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1551,10 +1539,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1580,10 +1568,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1609,10 +1597,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1638,10 +1626,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1667,10 +1655,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1696,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1725,10 +1713,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1754,10 +1742,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1783,10 +1771,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1812,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1841,10 +1829,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1870,10 +1858,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1899,10 +1887,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
         <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1928,10 +1916,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1957,10 +1945,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1986,10 +1974,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2015,10 +2003,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2044,10 +2032,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2073,10 +2061,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2102,10 +2090,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2131,10 +2119,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2160,10 +2148,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2189,10 +2177,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2218,10 +2206,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2247,10 +2235,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2276,10 +2264,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2305,10 +2293,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2334,10 +2322,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2363,10 +2351,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2392,10 +2380,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2421,10 +2409,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2450,10 +2438,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2479,10 +2467,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2508,10 +2496,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2537,10 +2525,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2566,10 +2554,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2595,10 +2583,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2624,10 +2612,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2653,10 +2641,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2682,10 +2670,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2711,10 +2699,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2740,10 +2728,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2769,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2798,10 +2786,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2827,10 +2815,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2856,10 +2844,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -2885,10 +2873,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2914,11 +2902,11 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
       </c>
-      <c r="F73" t="s">
-        <v>144</v>
-      </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
@@ -2926,64 +2914,6 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73</v>
-      </c>
-      <c r="E74" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2</v>
-      </c>
-      <c r="H74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>147</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" t="n">
         <v>3</v>
       </c>
     </row>
